--- a/Data/ChenGenes_MalaCards.xlsx
+++ b/Data/ChenGenes_MalaCards.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katefinstuen-magro/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Accounts/chens5/Desktop/CompBioComps/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AECB5B-BA59-F846-A2E6-BC0A78341619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="28160" windowHeight="15840" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2820" yWindow="1900" windowWidth="29700" windowHeight="18280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Ischaemic stroke" sheetId="1" r:id="rId1"/>
+    <sheet name="Endometriosis" sheetId="2" r:id="rId2"/>
+    <sheet name="Lymphoma" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="384">
   <si>
     <t>ESR2</t>
   </si>
@@ -1082,16 +1083,121 @@
   </si>
   <si>
     <t>PDCD1</t>
+  </si>
+  <si>
+    <t>CDKN2B-AS1</t>
+  </si>
+  <si>
+    <t>WNT4</t>
+  </si>
+  <si>
+    <t>H19</t>
+  </si>
+  <si>
+    <t>RN7SL7P</t>
+  </si>
+  <si>
+    <t>MIR145</t>
+  </si>
+  <si>
+    <t>MIR29C</t>
+  </si>
+  <si>
+    <t>MIR20A</t>
+  </si>
+  <si>
+    <t>MIR126</t>
+  </si>
+  <si>
+    <t>MIR141</t>
+  </si>
+  <si>
+    <t>ENDO1</t>
+  </si>
+  <si>
+    <t>MIR200A</t>
+  </si>
+  <si>
+    <t>MIR142</t>
+  </si>
+  <si>
+    <t>MIr200B</t>
+  </si>
+  <si>
+    <t>MIR424</t>
+  </si>
+  <si>
+    <t>MIR143</t>
+  </si>
+  <si>
+    <t>MIR196 B</t>
+  </si>
+  <si>
+    <t>MIR100</t>
+  </si>
+  <si>
+    <t>MIR99A</t>
+  </si>
+  <si>
+    <t>MIR125A</t>
+  </si>
+  <si>
+    <t>MIR99B</t>
+  </si>
+  <si>
+    <t>GNRH1</t>
+  </si>
+  <si>
+    <t>MIR34C</t>
+  </si>
+  <si>
+    <t>MalaGenes (not in initial set)</t>
+  </si>
+  <si>
+    <t>HOXA10</t>
+  </si>
+  <si>
+    <t>PTEN</t>
+  </si>
+  <si>
+    <t>CXCL8</t>
+  </si>
+  <si>
+    <t>NR5A1</t>
+  </si>
+  <si>
+    <t>MUC16</t>
+  </si>
+  <si>
+    <t>IL1R2</t>
+  </si>
+  <si>
+    <t>PAEP</t>
+  </si>
+  <si>
+    <t>STX5</t>
+  </si>
+  <si>
+    <t>MIR150</t>
+  </si>
+  <si>
+    <t>MIR223</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1128,6 +1234,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1395,11 +1504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2349,16 +2458,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -2377,8 +2489,17 @@
       <c r="G1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -2394,8 +2515,11 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>197</v>
       </c>
@@ -2408,8 +2532,11 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>367</v>
       </c>
@@ -2422,8 +2549,11 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>405</v>
       </c>
@@ -2436,8 +2566,11 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>6352</v>
       </c>
@@ -2450,8 +2583,11 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1231</v>
       </c>
@@ -2464,8 +2600,11 @@
       <c r="E7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1234</v>
       </c>
@@ -2478,8 +2617,11 @@
       <c r="E8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1312</v>
       </c>
@@ -2492,8 +2634,11 @@
       <c r="E9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1493</v>
       </c>
@@ -2506,8 +2651,11 @@
       <c r="E10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1586</v>
       </c>
@@ -2520,8 +2668,14 @@
       <c r="E11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>360</v>
+      </c>
+      <c r="K11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1588</v>
       </c>
@@ -2534,8 +2688,14 @@
       <c r="E12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1543</v>
       </c>
@@ -2548,8 +2708,11 @@
       <c r="E13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1545</v>
       </c>
@@ -2562,8 +2725,11 @@
       <c r="E14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>1571</v>
       </c>
@@ -2576,8 +2742,11 @@
       <c r="E15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>2052</v>
       </c>
@@ -2590,8 +2759,11 @@
       <c r="E16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>2099</v>
       </c>
@@ -2604,8 +2776,11 @@
       <c r="E17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>2100</v>
       </c>
@@ -2618,382 +2793,458 @@
       <c r="E18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>355</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>356</v>
+        <v>2592</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>2592</v>
+        <v>2944</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>2944</v>
+        <v>2952</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>2952</v>
+        <v>3105</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>3106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>3107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>3115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>3117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>3105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>3106</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>3107</v>
-      </c>
-      <c r="C27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>3115</v>
-      </c>
-      <c r="C28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>3117</v>
+        <v>3119</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>3123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>3292</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>3119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>3123</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>3292</v>
+        <v>3383</v>
       </c>
       <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
         <v>156</v>
       </c>
-      <c r="D32" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" t="s">
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>3458</v>
+      </c>
+      <c r="C33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>3565</v>
+      </c>
+      <c r="C34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>3569</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>4312</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>4314</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>4353</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>3383</v>
-      </c>
-      <c r="C33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>3458</v>
-      </c>
-      <c r="C34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>3565</v>
-      </c>
-      <c r="C35" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>3569</v>
-      </c>
-      <c r="C36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>4312</v>
-      </c>
-      <c r="C37" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>4314</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>4353</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>10</v>
+        <v>8204</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>8204</v>
+        <v>5241</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>5241</v>
+        <v>7124</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>7124</v>
+        <v>7133</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>7133</v>
+        <v>7422</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="E44" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <v>7422</v>
-      </c>
-      <c r="C45" t="s">
-        <v>172</v>
-      </c>
-      <c r="D45" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
+      <c r="G44">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/ChenGenes_MalaCards.xlsx
+++ b/Data/ChenGenes_MalaCards.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Accounts/chens5/Desktop/CompBioComps/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katefinstuen-magro/Desktop/comps/CompBioComps/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AECB5B-BA59-F846-A2E6-BC0A78341619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1900" windowWidth="29700" windowHeight="18280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="1140" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ischaemic stroke" sheetId="1" r:id="rId1"/>
     <sheet name="Endometriosis" sheetId="2" r:id="rId2"/>
     <sheet name="Lymphoma" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1187,7 +1186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1504,11 +1503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2458,7 +2457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -3240,7 +3239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
